--- a/biology/Biochimie/Christelle_Hureau-Sabater/Christelle_Hureau-Sabater.xlsx
+++ b/biology/Biochimie/Christelle_Hureau-Sabater/Christelle_Hureau-Sabater.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christelle Hureau-Sabater, née le 27 août 1976, est une chimiste française spécialiste de la chimie bioinorganique. Elle dirige ses recherches au Laboratoire de chimie de coordination de l'Université Toulouse-III-Paul-Sabatier. En 2024, elle reçoit la médaille d'argent du CNRS.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Christelle Hureau-Sabater obtient son master of Science en 2000 à l'École polytechnique[1]. La même année, elle obtient un diplôme de chimie physique moléculaire à l'Université Paris-Sud[1]. En 2003, elle soutient sa thèse de doctorat en chimie de coordination dans la même université. Elle effectue 3 stages postdoctoraux puis entre au CNRS en 2007, où elle travaille au sein du Laboratoire de Chimie de Coordination[1]. En 2012 à l'Université Toulouse-III-Paul-Sabatier, elle soutient son habilitation à diriger des recherches.
-Christelle Hureau-Sabater travaille sur l'hypothèse amyloïde. Ses travaux ont démontré l'importance des ions cuivre et zinc dans les processus de stress oxydant et d'autoassemblage du peptide Bêta-amyloïde liés à la maladie d'Alzheimer et à d'autres maladies neuro-évolutives. Ils visent à développer des traitements pour capter notamment les ions cuivre et empêcher la formation de la plaque amyloïde[2],[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Christelle Hureau-Sabater obtient son master of Science en 2000 à l'École polytechnique. La même année, elle obtient un diplôme de chimie physique moléculaire à l'Université Paris-Sud. En 2003, elle soutient sa thèse de doctorat en chimie de coordination dans la même université. Elle effectue 3 stages postdoctoraux puis entre au CNRS en 2007, où elle travaille au sein du Laboratoire de Chimie de Coordination. En 2012 à l'Université Toulouse-III-Paul-Sabatier, elle soutient son habilitation à diriger des recherches.
+Christelle Hureau-Sabater travaille sur l'hypothèse amyloïde. Ses travaux ont démontré l'importance des ions cuivre et zinc dans les processus de stress oxydant et d'autoassemblage du peptide Bêta-amyloïde liés à la maladie d'Alzheimer et à d'autres maladies neuro-évolutives. Ils visent à développer des traitements pour capter notamment les ions cuivre et empêcher la formation de la plaque amyloïde.
 </t>
         </is>
       </c>
@@ -543,13 +557,15 @@
           <t>Distinctions et récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2024 : médaille d'argent du CNRS[3]
-2022 : Prix de la Fédération Gay Lussac - Académie des sciences pour la chimie au cœur des enjeux de la société[3]
-2014 : Bourse starting grant du conseil européen de la recherche pour son projet de recherche Alzheimer's disease and Zinc: the missing link ?(aLzINK)[5]
-2013 : prix Junior de la division de chimie de coordination de la Société chimique de France[6]
-2012 : médaille de bronze du CNRS[4]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2024 : médaille d'argent du CNRS
+2022 : Prix de la Fédération Gay Lussac - Académie des sciences pour la chimie au cœur des enjeux de la société
+2014 : Bourse starting grant du conseil européen de la recherche pour son projet de recherche Alzheimer's disease and Zinc: the missing link ?(aLzINK)
+2013 : prix Junior de la division de chimie de coordination de la Société chimique de France
+2012 : médaille de bronze du CNRS</t>
         </is>
       </c>
     </row>
